--- a/spliced/falling/2023-03-21_15-35-39/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-39/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.519069194793701</v>
+        <v>-0.2000583708286285</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4518875777721405</v>
+        <v>-0.1212567538022995</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6734789609909058</v>
+        <v>-0.0207694191485643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2113593816757202</v>
+        <v>-0.1815796941518783</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3769038617610931</v>
+        <v>-0.0572686158120632</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4825835525989532</v>
+        <v>0.08643743395805351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2393064647912979</v>
+        <v>-0.0739146918058395</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8791878223419189</v>
+        <v>-0.1140790879726409</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1872301995754242</v>
+        <v>0.1067487001419067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1922698318958282</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.9285151958465576</v>
+        <v>-0.0899499058723449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8594874143600464</v>
+        <v>-0.0404698215425014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.570354700088501</v>
+        <v>-0.0148134818300604</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.7802276611328125</v>
+        <v>0.1036943718791008</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.989242076873779</v>
+        <v>-0.1157589629292488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.221577763557434</v>
+        <v>0.5971207618713379</v>
       </c>
       <c r="B7" t="n">
-        <v>2.375196695327759</v>
+        <v>1.289536476135254</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.503631114959717</v>
+        <v>-0.3637702465057373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.165364503860474</v>
+        <v>1.519069194793701</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5566509366035461</v>
+        <v>-0.4518875777721405</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4453207552433014</v>
+        <v>-0.6734789609909058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2727513313293457</v>
+        <v>0.2113593816757202</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5925393104553223</v>
+        <v>-0.3769038617610931</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4948008358478546</v>
+        <v>0.4825835525989532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2121229618787765</v>
+        <v>0.2393064647912979</v>
       </c>
       <c r="B10" t="n">
-        <v>1.80510675907135</v>
+        <v>-0.8791878223419189</v>
       </c>
       <c r="C10" t="n">
-        <v>1.96942949295044</v>
+        <v>-0.1872301995754242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2755002379417419</v>
+        <v>-0.1922698318958282</v>
       </c>
       <c r="B11" t="n">
-        <v>1.588096976280212</v>
+        <v>-0.9285151958465576</v>
       </c>
       <c r="C11" t="n">
-        <v>2.037540912628174</v>
+        <v>0.8594874143600464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8869763612747192</v>
+        <v>-3.570354700088501</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8231409192085266</v>
+        <v>-0.7802276611328125</v>
       </c>
       <c r="C12" t="n">
-        <v>1.362993121147156</v>
+        <v>-4.989242076873779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2379320114850998</v>
+        <v>-1.221577763557434</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.7533495426177979</v>
+        <v>2.375196695327759</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1786780804395675</v>
+        <v>-2.503631114959717</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.6151412725448608</v>
+        <v>2.165364503860474</v>
       </c>
       <c r="B14" t="n">
-        <v>1.230893492698669</v>
+        <v>0.5566509366035461</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3686571717262268</v>
+        <v>-0.4453207552433014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.1403462886810302</v>
+        <v>0.2727513313293457</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7915286421775818</v>
+        <v>0.5925393104553223</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00137444678694</v>
+        <v>0.4948008358478546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3019201457500458</v>
+        <v>-0.2121229618787765</v>
       </c>
       <c r="B16" t="n">
-        <v>0.041233405470848</v>
+        <v>1.80510675907135</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0345138870179653</v>
+        <v>1.96942949295044</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1716531366109848</v>
+        <v>0.2755002379417419</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.2657263875007629</v>
+        <v>1.588096976280212</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0448985956609249</v>
+        <v>2.037540912628174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2078468948602676</v>
+        <v>0.8869763612747192</v>
       </c>
       <c r="B18" t="n">
-        <v>0.078801617026329</v>
+        <v>0.8231409192085266</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.026419922709465</v>
+        <v>1.362993121147156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0473420582711696</v>
+        <v>0.2379320114850998</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0163406450301408</v>
+        <v>-0.7533495426177979</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0430659987032413</v>
+        <v>0.1786780804395675</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0447458773851394</v>
+        <v>0.6151412725448608</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1368338167667389</v>
+        <v>1.230893492698669</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0710130855441093</v>
+        <v>-0.3686571717262268</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0578794814646244</v>
+        <v>0.1403462886810302</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06536258012056349</v>
+        <v>0.7915286421775818</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0146607663482427</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0494800843298435</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0968221426010131</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.09865473955869671</v>
+        <v>0.00137444678694</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-35-39/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-39/gyroscope_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2000583708286285</v>
+        <v>0.2393064647912979</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1212567538022995</v>
+        <v>-0.8791878223419189</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0207694191485643</v>
+        <v>-0.1872301995754242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1815796941518783</v>
+        <v>-0.1922698318958282</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0572686158120632</v>
+        <v>-0.9285151958465576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08643743395805351</v>
+        <v>0.8594874143600464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0739146918058395</v>
+        <v>-3.570354700088501</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1140790879726409</v>
+        <v>-0.7802276611328125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1067487001419067</v>
+        <v>-4.989242076873779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.0395535230636596</v>
+        <v>-1.221577763557434</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0899499058723449</v>
+        <v>2.375196695327759</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0404698215425014</v>
+        <v>-2.503631114959717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.0148134818300604</v>
+        <v>2.165364503860474</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1036943718791008</v>
+        <v>0.5566509366035461</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1157589629292488</v>
+        <v>-0.4453207552433014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5971207618713379</v>
+        <v>0.2727513313293457</v>
       </c>
       <c r="B7" t="n">
-        <v>1.289536476135254</v>
+        <v>0.5925393104553223</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3637702465057373</v>
+        <v>0.4948008358478546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.519069194793701</v>
+        <v>-0.2121229618787765</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4518875777721405</v>
+        <v>1.80510675907135</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6734789609909058</v>
+        <v>1.96942949295044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2113593816757202</v>
+        <v>0.2755002379417419</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3769038617610931</v>
+        <v>1.588096976280212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4825835525989532</v>
+        <v>2.037540912628174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2393064647912979</v>
+        <v>0.8869763612747192</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.8791878223419189</v>
+        <v>0.8231409192085266</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1872301995754242</v>
+        <v>1.362993121147156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1922698318958282</v>
+        <v>0.2379320114850998</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9285151958465576</v>
+        <v>-0.7533495426177979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8594874143600464</v>
+        <v>0.1786780804395675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.570354700088501</v>
+        <v>0.6151412725448608</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7802276611328125</v>
+        <v>1.230893492698669</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.989242076873779</v>
+        <v>-0.3686571717262268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.221577763557434</v>
+        <v>0.1403462886810302</v>
       </c>
       <c r="B13" t="n">
-        <v>2.375196695327759</v>
+        <v>0.7915286421775818</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.503631114959717</v>
+        <v>0.00137444678694</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.165364503860474</v>
+        <v>-0.3019201457500458</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5566509366035461</v>
+        <v>0.041233405470848</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4453207552433014</v>
+        <v>-0.0345138870179653</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.2727513313293457</v>
+        <v>-0.1716531366109848</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5925393104553223</v>
+        <v>-0.2657263875007629</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4948008358478546</v>
+        <v>-0.0448985956609249</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2121229618787765</v>
+        <v>-0.2078468948602676</v>
       </c>
       <c r="B16" t="n">
-        <v>1.80510675907135</v>
+        <v>0.078801617026329</v>
       </c>
       <c r="C16" t="n">
-        <v>1.96942949295044</v>
+        <v>-0.026419922709465</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2755002379417419</v>
+        <v>0.0473420582711696</v>
       </c>
       <c r="B17" t="n">
-        <v>1.588096976280212</v>
+        <v>-0.0163406450301408</v>
       </c>
       <c r="C17" t="n">
-        <v>2.037540912628174</v>
+        <v>0.0430659987032413</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8869763612747192</v>
+        <v>-0.0447458773851394</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8231409192085266</v>
+        <v>0.1368338167667389</v>
       </c>
       <c r="C18" t="n">
-        <v>1.362993121147156</v>
+        <v>-0.0710130855441093</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.2379320114850998</v>
+        <v>0.0578794814646244</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.7533495426177979</v>
+        <v>0.06536258012056349</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1786780804395675</v>
+        <v>-0.0146607663482427</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.6151412725448608</v>
+        <v>-0.0494800843298435</v>
       </c>
       <c r="B20" t="n">
-        <v>1.230893492698669</v>
+        <v>0.0968221426010131</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3686571717262268</v>
+        <v>0.09865473955869671</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.1403462886810302</v>
+        <v>-0.08109235763549801</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7915286421775818</v>
+        <v>0.040775254368782</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00137444678694</v>
+        <v>0.0303905457258224</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-35-39/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-39/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2393064647912979</v>
+        <v>-0.6933320760726929</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8791878223419189</v>
+        <v>1.070083141326904</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1872301995754242</v>
+        <v>-0.4738787114620209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1922698318958282</v>
+        <v>-0.694248378276825</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.9285151958465576</v>
+        <v>0.7021896243095398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8594874143600464</v>
+        <v>-0.1614211350679397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.570354700088501</v>
+        <v>0.1959350258111953</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7802276611328125</v>
+        <v>0.2964223623275757</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.989242076873779</v>
+        <v>-0.2142609804868698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.221577763557434</v>
+        <v>0.4120286107063293</v>
       </c>
       <c r="B5" t="n">
-        <v>2.375196695327759</v>
+        <v>-0.2721404731273651</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.503631114959717</v>
+        <v>-0.3208569586277008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.165364503860474</v>
+        <v>0.1794416606426239</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5566509366035461</v>
+        <v>0.0216857157647609</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4453207552433014</v>
+        <v>-0.3880521357059479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2727513313293457</v>
+        <v>-0.1267545372247696</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5925393104553223</v>
+        <v>-0.0375682115554809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4948008358478546</v>
+        <v>-0.1798998117446899</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2121229618787765</v>
+        <v>-0.0123700210824608</v>
       </c>
       <c r="B8" t="n">
-        <v>1.80510675907135</v>
+        <v>0.0419969856739044</v>
       </c>
       <c r="C8" t="n">
-        <v>1.96942949295044</v>
+        <v>0.271224170923233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2755002379417419</v>
+        <v>-0.0514653958380222</v>
       </c>
       <c r="B9" t="n">
-        <v>1.588096976280212</v>
+        <v>-0.052381694316864</v>
       </c>
       <c r="C9" t="n">
-        <v>2.037540912628174</v>
+        <v>0.3119994103908539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8869763612747192</v>
+        <v>-0.1554652005434036</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8231409192085266</v>
+        <v>-0.0441350154578685</v>
       </c>
       <c r="C10" t="n">
-        <v>1.362993121147156</v>
+        <v>-0.0074830991216003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2379320114850998</v>
+        <v>-0.2000583708286285</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7533495426177979</v>
+        <v>-0.1212567538022995</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1786780804395675</v>
+        <v>-0.0207694191485643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6151412725448608</v>
+        <v>-0.1815796941518783</v>
       </c>
       <c r="B12" t="n">
-        <v>1.230893492698669</v>
+        <v>-0.0572686158120632</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3686571717262268</v>
+        <v>0.08643743395805351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1403462886810302</v>
+        <v>-0.0739146918058395</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7915286421775818</v>
+        <v>-0.1140790879726409</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00137444678694</v>
+        <v>0.1067487001419067</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.3019201457500458</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="B14" t="n">
-        <v>0.041233405470848</v>
+        <v>-0.0899499058723449</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0345138870179653</v>
+        <v>-0.0404698215425014</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1716531366109848</v>
+        <v>-0.0148134818300604</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2657263875007629</v>
+        <v>0.1036943718791008</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0448985956609249</v>
+        <v>-0.1157589629292488</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2078468948602676</v>
+        <v>0.5971207618713379</v>
       </c>
       <c r="B16" t="n">
-        <v>0.078801617026329</v>
+        <v>1.289536476135254</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.026419922709465</v>
+        <v>-0.3637702465057373</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0473420582711696</v>
+        <v>1.519069194793701</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0163406450301408</v>
+        <v>-0.4518875777721405</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0430659987032413</v>
+        <v>-0.6734789609909058</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0447458773851394</v>
+        <v>0.2113593816757202</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1368338167667389</v>
+        <v>-0.3769038617610931</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0710130855441093</v>
+        <v>0.4825835525989532</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0578794814646244</v>
+        <v>0.2393064647912979</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06536258012056349</v>
+        <v>-0.8791878223419189</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0146607663482427</v>
+        <v>-0.1872301995754242</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0494800843298435</v>
+        <v>-0.1922698318958282</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0968221426010131</v>
+        <v>-0.9285151958465576</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09865473955869671</v>
+        <v>0.8594874143600464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.08109235763549801</v>
+        <v>-3.570354700088501</v>
       </c>
       <c r="B21" t="n">
-        <v>0.040775254368782</v>
+        <v>-0.7802276611328125</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0303905457258224</v>
+        <v>-4.989242076873779</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.221577763557434</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.375196695327759</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.503631114959717</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.165364503860474</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5566509366035461</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.4453207552433014</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.2727513313293457</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5925393104553223</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4948008358478546</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.2121229618787765</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.80510675907135</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.96942949295044</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.2755002379417419</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.588096976280212</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.037540912628174</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.8869763612747192</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8231409192085266</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.362993121147156</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.2379320114850998</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.7533495426177979</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1786780804395675</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.6151412725448608</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.230893492698669</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.3686571717262268</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.1403462886810302</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7915286421775818</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00137444678694</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.3019201457500458</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.041233405470848</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0345138870179653</v>
       </c>
     </row>
   </sheetData>
